--- a/data/trans_dic/POLIPATOLOGIA_Lim_5-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_Lim_5-Provincia-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.03765775547833955</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.02487378495305972</v>
+        <v>0.02487378495305973</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.08355534415938302</v>
@@ -655,7 +655,7 @@
         <v>0.13114570851312</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.05848246661680601</v>
+        <v>0.05848246661680602</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.06094552061471718</v>
@@ -664,7 +664,7 @@
         <v>0.08399581664563607</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.04160442351460384</v>
+        <v>0.04160442351460385</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02290224338433253</v>
+        <v>0.01962876571724268</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0203926707721096</v>
+        <v>0.0194456580906628</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01324370625931632</v>
+        <v>0.01247957215928859</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05411877768199839</v>
+        <v>0.05194453169835928</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09491629612441846</v>
+        <v>0.09532019204404418</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04156780799624632</v>
+        <v>0.0409806728559397</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04128946564072904</v>
+        <v>0.04279059220973879</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06425158863562894</v>
+        <v>0.06247218770189365</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0302344966511989</v>
+        <v>0.03126934378983355</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07168806710828095</v>
+        <v>0.06902700076848364</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06691838624634636</v>
+        <v>0.06643158239263974</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04750083529346118</v>
+        <v>0.04361037409166821</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1299928624603695</v>
+        <v>0.1242101252225388</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1773371511133489</v>
+        <v>0.1829001285315592</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07915623349266371</v>
+        <v>0.07714113471466995</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08526051867593332</v>
+        <v>0.08529956278398192</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1120711367614842</v>
+        <v>0.1095501725603497</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05511257147043616</v>
+        <v>0.0555076620488523</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.009373798127620365</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0530933985632238</v>
+        <v>0.05309339856322379</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.08987958078202411</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03130353541935794</v>
+        <v>0.03108773819696482</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.003457381017102783</v>
+        <v>0.003412449682199141</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03547443573076504</v>
+        <v>0.03680709290922867</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06532115252161123</v>
+        <v>0.06615472834528652</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03405196281830468</v>
+        <v>0.03479548370395279</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1071481310484588</v>
+        <v>0.1070789413407077</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05474730975364249</v>
+        <v>0.05408914193831787</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02154400102595566</v>
+        <v>0.0219445959638798</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07689321567976404</v>
+        <v>0.07673669438106025</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0761689420014358</v>
+        <v>0.07689851314257255</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02106571164610862</v>
+        <v>0.02066167631077448</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07633197999971196</v>
+        <v>0.0796397740072254</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1191269174801405</v>
+        <v>0.1208042037597717</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07623887940550249</v>
+        <v>0.07758528170451005</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1553511563356723</v>
+        <v>0.1550111491413463</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.08879888991715373</v>
+        <v>0.08778610156600455</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04537909196341738</v>
+        <v>0.04570224073379218</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1104609978446075</v>
+        <v>0.1082336687329505</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01238100753470406</v>
+        <v>0.01249602132528113</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.006852424532641138</v>
+        <v>0.005366218442593859</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07825284854311999</v>
+        <v>0.08445071489374564</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05451564058559719</v>
+        <v>0.05297806562590752</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03174604311509533</v>
+        <v>0.030013342280535</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.129541960326764</v>
+        <v>0.1309853686619996</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03965220097955784</v>
+        <v>0.03838550720841937</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02225544876964053</v>
+        <v>0.02172018637721225</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1141917999517278</v>
+        <v>0.1145680786976453</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05735083318008873</v>
+        <v>0.05605569948336767</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03292845163821333</v>
+        <v>0.03048811437861355</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1383547890140744</v>
+        <v>0.1418879084685921</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1165572170844938</v>
+        <v>0.1171621657331445</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08898254566061754</v>
+        <v>0.089175922703153</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.187650819823572</v>
+        <v>0.1916382008903019</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07762197967350153</v>
+        <v>0.07642503040854309</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05211804562710261</v>
+        <v>0.05183248368152679</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1580636192656623</v>
+        <v>0.1566113511966714</v>
       </c>
     </row>
     <row r="13">
@@ -991,7 +991,7 @@
         <v>0.08720925091736277</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.1188017288209792</v>
+        <v>0.1188017288209793</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02530522509868714</v>
+        <v>0.02300116717986463</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02825567689560701</v>
+        <v>0.02829667575486134</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06047060471538061</v>
+        <v>0.06144438480059891</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1011685684086146</v>
+        <v>0.10410032528466</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.09546170815834537</v>
+        <v>0.09453278110786567</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1214751097355281</v>
+        <v>0.1231803779912224</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06918036714850136</v>
+        <v>0.07012726336599225</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0662915986850789</v>
+        <v>0.06593016870198437</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.09928077769548271</v>
+        <v>0.09864594672761219</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06947526400632101</v>
+        <v>0.0664528323306426</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07378115191112748</v>
+        <v>0.07277023706329372</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1224497899887793</v>
+        <v>0.1190771437636597</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.169264880969584</v>
+        <v>0.1720945049221035</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1680943764763611</v>
+        <v>0.1648659663958781</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1743259664883496</v>
+        <v>0.1766357704229809</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1104781634663116</v>
+        <v>0.1115160945882451</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1117687756664562</v>
+        <v>0.1112471558667768</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1372466714118953</v>
+        <v>0.13907916129487</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05187646929125705</v>
+        <v>0.0484094176091145</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02221860500873186</v>
+        <v>0.02275156035020028</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03433355174478036</v>
+        <v>0.03386092102520664</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1261658092624248</v>
+        <v>0.1256477366815261</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06338400694182168</v>
+        <v>0.0636700072793832</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1036206632578803</v>
+        <v>0.1061133463109056</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09456066151299369</v>
+        <v>0.09863329038735436</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04992715727705496</v>
+        <v>0.05021019245410934</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07723583141009147</v>
+        <v>0.07790438993444895</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1337002088742535</v>
+        <v>0.1280337271710708</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07596987213749329</v>
+        <v>0.07871534412834162</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08240294465290934</v>
+        <v>0.08256803543016721</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2329016162651256</v>
+        <v>0.2320147903537598</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1451353511790922</v>
+        <v>0.1492114648981015</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1628333068210076</v>
+        <v>0.1632961148689566</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1613989115345381</v>
+        <v>0.1654511847279239</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.100858562578593</v>
+        <v>0.09883802393671298</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1143581854499671</v>
+        <v>0.1146038722220283</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1200,7 @@
         <v>0.06625776427572606</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.2532053481796372</v>
+        <v>0.2532053481796371</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.05605665372865674</v>
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02597598259392321</v>
+        <v>0.02640039873525447</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0126664186650186</v>
+        <v>0.01182159467400604</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.117204818442527</v>
+        <v>0.1170189158218436</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.03785035859910176</v>
+        <v>0.03710948494563065</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03971244090840625</v>
+        <v>0.03975876182867358</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2139769206540325</v>
+        <v>0.2177509260443598</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03943427558307279</v>
+        <v>0.03976003079378763</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02978750524337096</v>
+        <v>0.03056708654206805</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1756283552129658</v>
+        <v>0.1754890728366315</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07873832029446999</v>
+        <v>0.08205341586242342</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05378132804334631</v>
+        <v>0.05061599921098806</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1864684742297304</v>
+        <v>0.1846717350901907</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.09523534649756943</v>
+        <v>0.09372766561349326</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1059591530119399</v>
+        <v>0.106108058903</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.290233155934891</v>
+        <v>0.2952088170026393</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.07781891467168381</v>
+        <v>0.07886662465207871</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.06878403088595421</v>
+        <v>0.06688745238787382</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2260400214017736</v>
+        <v>0.2289058808644168</v>
       </c>
     </row>
     <row r="22">
@@ -1300,7 +1300,7 @@
         <v>0.04042980932694198</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.08118693859576423</v>
+        <v>0.08118693859576424</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.09089696712204018</v>
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01503653982380889</v>
+        <v>0.01505737209047996</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02634909521993876</v>
+        <v>0.02646680763676466</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.06392368304947507</v>
+        <v>0.06132669413115285</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0706670078730236</v>
+        <v>0.06819846376083046</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0702251726689178</v>
+        <v>0.07001243725819271</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1838920779858815</v>
+        <v>0.182294613361683</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.04714324853747502</v>
+        <v>0.04733733876756374</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.05267608391690065</v>
+        <v>0.05343234144589582</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1301600033695359</v>
+        <v>0.1323948150804922</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04008107369046827</v>
+        <v>0.03956561603813672</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05787163660941205</v>
+        <v>0.05841269098082993</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1050517753424907</v>
+        <v>0.1027553545608312</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1152646658326785</v>
+        <v>0.1149057829932749</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1142256440687858</v>
+        <v>0.1134710337955108</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2357976383207107</v>
+        <v>0.2351336830108147</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.07411775969018532</v>
+        <v>0.07472057142297499</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.08106316383497766</v>
+        <v>0.08160103407110364</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1640091271279037</v>
+        <v>0.1649997014373627</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.009352697048753434</v>
+        <v>0.008924724653924885</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02096521050379509</v>
+        <v>0.02056906451025369</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03223368592439889</v>
+        <v>0.03156883822522332</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.05608228394128584</v>
+        <v>0.05617783141069189</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.077118191815342</v>
+        <v>0.08031687767413408</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.09663370225511536</v>
+        <v>0.09783295810600097</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.03542931903498412</v>
+        <v>0.03566348708900929</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.05493462673917143</v>
+        <v>0.05463276799697135</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.06943625943699012</v>
+        <v>0.06935934384195458</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02875438161377867</v>
+        <v>0.0274275601929584</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04689916400506669</v>
+        <v>0.04659120574949237</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.05815348221276545</v>
+        <v>0.05785055606219551</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.09274352163500225</v>
+        <v>0.09248503426930113</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1250541010954353</v>
+        <v>0.1253465771595205</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1336409731586852</v>
+        <v>0.1337544221883653</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.0571345093537922</v>
+        <v>0.05690104532942058</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.08149457206476403</v>
+        <v>0.08073909178754149</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.09213722081048652</v>
+        <v>0.09280173032190452</v>
       </c>
     </row>
     <row r="28">
@@ -1536,7 +1536,7 @@
         <v>0.06106942337186406</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.1111965556542035</v>
+        <v>0.1111965556542034</v>
       </c>
     </row>
     <row r="29">
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0293191690276422</v>
+        <v>0.02966740725614496</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.02568218575988533</v>
+        <v>0.02557694606081206</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.06207891310905875</v>
+        <v>0.06220729299400879</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.08388368982408641</v>
+        <v>0.08331978283252692</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.07941999833897577</v>
+        <v>0.08067549804217462</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1410658195489462</v>
+        <v>0.1409276098055865</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.05835079454340338</v>
+        <v>0.05884709394503927</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.05512866853029724</v>
+        <v>0.05564632527508136</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1049180189398286</v>
+        <v>0.1051150004062586</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.04244112331054225</v>
+        <v>0.04280307451096236</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.03763278333277601</v>
+        <v>0.03790416205872332</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.07814568065289718</v>
+        <v>0.07787812515299075</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1040426853038572</v>
+        <v>0.1037574067795425</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1005827362362935</v>
+        <v>0.1008531427641344</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1597347323928012</v>
+        <v>0.1596251596370064</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.07075360078314137</v>
+        <v>0.07100795998374958</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.06760246055346841</v>
+        <v>0.06727032024133724</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1173852099869415</v>
+        <v>0.1174383778172652</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6750</v>
+        <v>5785</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5991</v>
+        <v>5712</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4223</v>
+        <v>3979</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>15545</v>
+        <v>14921</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>27403</v>
+        <v>27519</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>13138</v>
+        <v>12952</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>24030</v>
+        <v>24903</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>37424</v>
+        <v>36388</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>19196</v>
+        <v>19853</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>21129</v>
+        <v>20345</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>19658</v>
+        <v>19515</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15145</v>
+        <v>13905</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>37340</v>
+        <v>35679</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>51198</v>
+        <v>52804</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>25018</v>
+        <v>24381</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>49620</v>
+        <v>49643</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>65277</v>
+        <v>63809</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>34991</v>
+        <v>35242</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>15825</v>
+        <v>15716</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1738</v>
+        <v>1715</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>18824</v>
+        <v>19532</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>34213</v>
+        <v>34650</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>17812</v>
+        <v>18201</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>58556</v>
+        <v>58518</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>56351</v>
+        <v>55674</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>22097</v>
+        <v>22508</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>82825</v>
+        <v>82656</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>38505</v>
+        <v>38874</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10587</v>
+        <v>10384</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>40505</v>
+        <v>42261</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>62395</v>
+        <v>63273</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>39879</v>
+        <v>40584</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>84898</v>
+        <v>84713</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>91400</v>
+        <v>90358</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>46543</v>
+        <v>46875</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>118982</v>
+        <v>116583</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4012</v>
+        <v>4049</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2183</v>
+        <v>1709</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>24727</v>
+        <v>26686</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>18591</v>
+        <v>18067</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>10676</v>
+        <v>10094</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>46166</v>
+        <v>46681</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>26371</v>
+        <v>25529</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>14575</v>
+        <v>14224</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>76780</v>
+        <v>77033</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18584</v>
+        <v>18165</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10490</v>
+        <v>9712</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>43719</v>
+        <v>44836</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>39748</v>
+        <v>39955</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>29926</v>
+        <v>29991</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>66875</v>
+        <v>68296</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>51624</v>
+        <v>50828</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>34131</v>
+        <v>33944</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>106278</v>
+        <v>105302</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>9464</v>
+        <v>8602</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10454</v>
+        <v>10469</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>22564</v>
+        <v>22928</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>39350</v>
+        <v>40490</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>36971</v>
+        <v>36611</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>51258</v>
+        <v>51977</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>52780</v>
+        <v>53502</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>50199</v>
+        <v>49925</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>78939</v>
+        <v>78434</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25982</v>
+        <v>24852</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>27296</v>
+        <v>26922</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>45692</v>
+        <v>44433</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>65836</v>
+        <v>66936</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>65100</v>
+        <v>63850</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>73559</v>
+        <v>74533</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>84287</v>
+        <v>85079</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>84637</v>
+        <v>84242</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>109126</v>
+        <v>110583</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>11030</v>
+        <v>10293</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>4693</v>
+        <v>4806</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>7061</v>
+        <v>6964</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>27705</v>
+        <v>27591</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>13855</v>
+        <v>13917</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>23721</v>
+        <v>24291</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>40870</v>
+        <v>42630</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>21459</v>
+        <v>21581</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>33565</v>
+        <v>33856</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>28427</v>
+        <v>27222</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>16046</v>
+        <v>16626</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>16947</v>
+        <v>16981</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>51143</v>
+        <v>50948</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>31725</v>
+        <v>32616</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>37275</v>
+        <v>37381</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>69758</v>
+        <v>71509</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>43350</v>
+        <v>42481</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>49698</v>
+        <v>49805</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>7117</v>
+        <v>7233</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3333</v>
+        <v>3111</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>31728</v>
+        <v>31678</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>10599</v>
+        <v>10392</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>10846</v>
+        <v>10859</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>56436</v>
+        <v>57432</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>21847</v>
+        <v>22028</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>15973</v>
+        <v>16391</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>93866</v>
+        <v>93791</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>21573</v>
+        <v>22481</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>14151</v>
+        <v>13318</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>50478</v>
+        <v>49992</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>26669</v>
+        <v>26247</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>28939</v>
+        <v>28980</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>76549</v>
+        <v>77861</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>43113</v>
+        <v>43693</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>36885</v>
+        <v>35868</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>120809</v>
+        <v>122340</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>9966</v>
+        <v>9980</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>17300</v>
+        <v>17377</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>46005</v>
+        <v>44136</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>49033</v>
+        <v>47320</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>48546</v>
+        <v>48399</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>141975</v>
+        <v>140742</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>63956</v>
+        <v>64220</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>71000</v>
+        <v>72019</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>194165</v>
+        <v>197499</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>26565</v>
+        <v>26224</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>37996</v>
+        <v>38351</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>75604</v>
+        <v>73952</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>79977</v>
+        <v>79728</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>78964</v>
+        <v>78442</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>182049</v>
+        <v>181537</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>100551</v>
+        <v>101369</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>109261</v>
+        <v>109986</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>244660</v>
+        <v>246137</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>7287</v>
+        <v>6953</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>16323</v>
+        <v>16015</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>25725</v>
+        <v>25194</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>46204</v>
+        <v>46282</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>63713</v>
+        <v>66355</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>80335</v>
+        <v>81332</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>56791</v>
+        <v>57167</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>88156</v>
+        <v>87672</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>113140</v>
+        <v>113014</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>22402</v>
+        <v>21369</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>36515</v>
+        <v>36275</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>46411</v>
+        <v>46169</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>76407</v>
+        <v>76194</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>103316</v>
+        <v>103557</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>111100</v>
+        <v>111194</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>91584</v>
+        <v>91210</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>130778</v>
+        <v>129566</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>150129</v>
+        <v>151211</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>100470</v>
+        <v>101664</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>87174</v>
+        <v>86817</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>219310</v>
+        <v>219764</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>298484</v>
+        <v>296478</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>281508</v>
+        <v>285958</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>527156</v>
+        <v>526640</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>407585</v>
+        <v>411052</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>382532</v>
+        <v>386124</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>762724</v>
+        <v>764156</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>145436</v>
+        <v>146677</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>127739</v>
+        <v>128660</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>276070</v>
+        <v>275125</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>370216</v>
+        <v>369201</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>356520</v>
+        <v>357478</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>596921</v>
+        <v>596512</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>494220</v>
+        <v>495997</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>469086</v>
+        <v>466781</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>853357</v>
+        <v>853744</v>
       </c>
     </row>
     <row r="40">
